--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic 2012 Promos (PM12).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic 2012 Promos (PM12).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,231 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bloodlord of Vaasgoth</t>
+          <t>('Bloodlord of Vaasgoth', ['{3}{B}{B}', 'Creature — Vampire Warrior', 'Bloodthirst 3 (If an opponent was dealt damage this turn, this creature enters the battlefield with three +1/+1 counters on it.)', 'Flying', 'Whenever you cast a Vampire creature spell, it gains bloodthirst 3.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{B}{B}</t>
+          <t>("Chandra's Phoenix", ['{1}{R}{R}', 'Creature — Phoenix', 'Flying', 'Haste (This creature can attack and {T} as soon as it comes under your control.)', 'Whenever an opponent is dealt damage by a red instant or sorcery spell you control or by a red planeswalker you control, return Chandra’s Phoenix from your graveyard to your hand.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Vampire Warrior</t>
+          <t>('Dungrove Elder', ['{2}{G}', 'Creature — Treefolk', 'Hexproof (This creature can’t be the target of spells or abilities your opponents control.)', 'Dungrove Elder’s power and toughness are each equal to the number of Forests you control.', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bloodthirst 3 (If an opponent was dealt damage this turn, this creature enters the battlefield with three +1/+1 counters on it.)</t>
+          <t>("Garruk's Horde", ['{5}{G}{G}', 'Creature — Beast', 'Trample', 'Play with the top card of your library revealed.', 'You may cast creature spells from the top of your library. (Do this only any time you could cast that creature spell. You still pay the spell’s costs.)', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Whenever you cast a Vampire creature spell, it gains bloodthirst 3.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Chandra's Phoenix</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{1}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Creature — Phoenix</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Haste (This creature can attack and {T} as soon as it comes under your control.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Whenever an opponent is dealt damage by a red instant or sorcery spell you control or by a red planeswalker you control, return Chandra’s Phoenix from your graveyard to your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Dungrove Elder</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Creature — Treefolk</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Hexproof (This creature can’t be the target of spells or abilities your opponents control.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Dungrove Elder’s power and toughness are each equal to the number of Forests you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Garruk's Horde</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{5}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Creature — Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Play with the top card of your library revealed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>You may cast creature spells from the top of your library. (Do this only any time you could cast that creature spell. You still pay the spell’s costs.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>7/7</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Stormblood Berserker</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Creature — Human Berserker</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Bloodthirst 2 (If an opponent was dealt damage this turn, this creature enters the battlefield with two +1/+1 counters on it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Menace (This creature can’t be blocked except by two or more creatures.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Stormblood Berserker', ['{1}{R}', 'Creature — Human Berserker', 'Bloodthirst 2 (If an opponent was dealt damage this turn, this creature enters the battlefield with two +1/+1 counters on it.)', 'Menace (This creature can’t be blocked except by two or more creatures.)', '1/1'])</t>
         </is>
       </c>
     </row>
